--- a/0OCTAVO0/Data mining/minning/probabilities/input.xlsx
+++ b/0OCTAVO0/Data mining/minning/probabilities/input.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\probabilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirito\Documents\Python Scripts\8vo\octavo\0OCTAVO0\Data mining\minning\probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C225C0-8DDB-4396-A55E-980F7B48658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAB9449-2FB1-4B71-A27F-D87E470E2EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3390" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Asegurado</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Promocionado</t>
+  </si>
+  <si>
+    <t>No promocionado</t>
   </si>
 </sst>
 </file>
@@ -359,17 +366,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -380,7 +387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -391,7 +398,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -400,6 +407,58 @@
       </c>
       <c r="C3">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A46DDEE-5E0F-4BC9-BBDB-582345E56C21}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>288</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>672</v>
+      </c>
+      <c r="C3">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
